--- a/Financials/Yearly/CIEN_YR_FIN.xlsx
+++ b/Financials/Yearly/CIEN_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92838A95-2382-4787-860D-33AB665384EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIEN" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>CIEN</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E7" s="2">
         <v>43039</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42674</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42308</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41943</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41578</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41213</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40847</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3094300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2801700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2445700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2288300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2082500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1833900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1742000</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1779600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1555900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1439000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1370100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1339900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1217400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1109700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1032800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1245800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1161600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1075600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>948400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>865200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>724200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>709100</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>491600</v>
+      </c>
+      <c r="E12" s="3">
         <v>475300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>451800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>414200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>401200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>383400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>364200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>379900</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E14" s="3">
         <v>27500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>34200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>48400</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E15" s="3">
         <v>33000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>61500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>69500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>46000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>49800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>51700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>69700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2890300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2590600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2444400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2345200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2242600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2113000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1913800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1905200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E18" s="3">
         <v>211100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>156200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-79800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-163200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>314100</v>
+      </c>
+      <c r="E21" s="3">
         <v>334900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>285100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>210700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>133200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>90900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>38600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E22" s="3">
         <v>55900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>44000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>39700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37900</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E23" s="3">
         <v>156100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>86700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-80200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-134700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-187800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1105800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1262000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-85400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-144000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-195500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1262000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>72600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-85400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-144000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-195500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,36 +1318,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-472800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-344700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1262000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>72600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-85400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-144000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-195500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-344700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1262000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>72600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-85400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-144000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-195500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E38" s="2">
         <v>43039</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42674</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42308</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41943</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41578</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41213</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40847</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>745400</v>
+      </c>
+      <c r="E41" s="3">
         <v>640500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>777600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>791000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>586700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>346500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>642400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>541900</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E42" s="3">
         <v>279100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>275200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>135100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>140200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>125000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>50100</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>812800</v>
+      </c>
+      <c r="E43" s="3">
         <v>633900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>584400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>579200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>529700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>354200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>423800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>262800</v>
+      </c>
+      <c r="E44" s="3">
         <v>267100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>211300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>191200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>254700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>249100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>260100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>230100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E45" s="3">
         <v>185600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>164700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>181900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>174700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>108900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>137100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2142600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2006300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2013200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1864200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1693200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1395800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1415700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1332800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E47" s="3">
         <v>56800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>105200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>50100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>15000</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>50300</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>292100</v>
+      </c>
+      <c r="E48" s="3">
         <v>308500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>288400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>192000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>126600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>119700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>123600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>122600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>446200</v>
+      </c>
+      <c r="E49" s="3">
         <v>368500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>413700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>459100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>128700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>185800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>257100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>331600</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>808600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1211600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>66300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>86400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>84700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3756500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3951700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2873600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2695100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2072600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1802800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1881100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1951400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>340600</v>
+      </c>
+      <c r="E57" s="3">
         <v>260100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>235900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>222100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>209800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>254800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>179700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>157100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E58" s="3">
         <v>356100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>238600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>197900</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>216200</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>611900</v>
+      </c>
+      <c r="E59" s="3">
         <v>421600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>417000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>437500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>373500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>360200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>289100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>296400</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>963000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1037700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>891500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>667000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>781100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>615100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>685000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>453500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>754700</v>
+      </c>
+      <c r="E61" s="3">
         <v>657100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1017400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1271600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1274800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1212000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1225800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1442400</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E62" s="3">
         <v>120500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>224700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>135500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>86300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>59300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1827200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1815400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2107200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2074200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2142200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1885400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1970100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1937500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4947700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4664300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5926200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5998800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6010500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5969800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5884400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5740400</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1929300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2136300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>766300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>620900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-69600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-82700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-89000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E80" s="2">
         <v>43039</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42674</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42308</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41943</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41578</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41213</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40847</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-344700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1262000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>72600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-85400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-144000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-195500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E83" s="3">
         <v>122900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>141700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>135800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>112800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>127000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>133600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>156100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>229300</v>
+      </c>
+      <c r="E89" s="3">
         <v>234900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>289500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>262100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>89800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>44700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>107100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-90500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-94600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-107200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-61400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-296300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-106400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-130900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-68600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3093,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3120,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-311100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>258500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-207300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-137100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>204300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>240200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-296000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-146800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/CIEN_YR_FIN.xlsx
+++ b/Financials/Yearly/CIEN_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92838A95-2382-4787-860D-33AB665384EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="CIEN" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>CIEN</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,152 +654,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E7" s="2">
         <v>43404</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43039</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42674</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42308</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41943</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41578</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41213</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40847</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3572100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3094300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2801700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2445700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2288300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2082500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1833900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1742000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2030100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1779600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1555900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1439000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1370100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1339900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1217400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1109700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1032800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1542100</v>
+      </c>
+      <c r="E10" s="3">
         <v>1314700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1245800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1161600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1075600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>948400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>865200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>724200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>709100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>548100</v>
+      </c>
+      <c r="E12" s="3">
         <v>491600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>475300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>451800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>414200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>401200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>383400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>364200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>379900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E14" s="3">
         <v>49200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>34200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E15" s="3">
         <v>15700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>33000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>61500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>69500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>46000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>49800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>69700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3225400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2890300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2590600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2444400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2345200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2242600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2113000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1913800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1905200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>346800</v>
+      </c>
+      <c r="E18" s="3">
         <v>204000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>211100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>156200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-79800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-163200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1052,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-25500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-25300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>473400</v>
+      </c>
+      <c r="E21" s="3">
         <v>314100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>334900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>285100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>210700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>133200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>90900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E22" s="3">
         <v>55200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>39700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>37900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>313200</v>
+      </c>
+      <c r="E23" s="3">
         <v>148800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>156100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>86700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-80200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-134700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-187800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-655100</v>
+      </c>
+      <c r="E24" s="3">
         <v>20700</v>
       </c>
-      <c r="E24" s="3">
-        <v>-1105800</v>
-      </c>
       <c r="F24" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G24" s="3">
         <v>14100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>968300</v>
+      </c>
+      <c r="E26" s="3">
         <v>128100</v>
       </c>
-      <c r="E26" s="3">
-        <v>1262000</v>
-      </c>
       <c r="F26" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G26" s="3">
         <v>72600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-85400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-144000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-195500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>968300</v>
+      </c>
+      <c r="E27" s="3">
         <v>128100</v>
       </c>
-      <c r="E27" s="3">
-        <v>1262000</v>
-      </c>
       <c r="F27" s="3">
+        <v>137000</v>
+      </c>
+      <c r="G27" s="3">
         <v>72600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-85400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-144000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-195500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1321,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>-714900</v>
+      </c>
+      <c r="E29" s="3">
         <v>-472800</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
+      <c r="F29" s="3">
+        <v>1125000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>35</v>
@@ -1348,12 +1373,15 @@
       <c r="J29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1381,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1411,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>25500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>25300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-344700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1262000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>72600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-85400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-144000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-195500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1501,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-344700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1262000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>72600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-85400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-144000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-195500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E38" s="2">
         <v>43404</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43039</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42674</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42308</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41943</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41578</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41213</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40847</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1581,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1595,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>904000</v>
+      </c>
+      <c r="E41" s="3">
         <v>745400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>640500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>777600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>791000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>586700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>346500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>642400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>541900</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E42" s="3">
         <v>149000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>279100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>275200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>135100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>140200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>125000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>50100</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E43" s="3">
         <v>812800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>633900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>584400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>579200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>529700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>354200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>423800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>345000</v>
+      </c>
+      <c r="E44" s="3">
         <v>262800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>267100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>211300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>191200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>254700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>249100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>260100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>230100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E45" s="3">
         <v>172600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>185600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>164700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>181900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>174700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2381800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2142600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2006300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2013200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1864200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1693200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1395800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1415700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1332800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E47" s="3">
         <v>67000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>56800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>105200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>50100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>15000</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>50300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>286900</v>
+      </c>
+      <c r="E48" s="3">
         <v>292100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>308500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>288400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>192000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>126600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>119700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>123600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>122600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>410700</v>
+      </c>
+      <c r="E49" s="3">
         <v>446200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>368500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>413700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>459100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>128700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>185800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>257100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>331600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1894,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>789200</v>
+      </c>
+      <c r="E52" s="3">
         <v>808600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1211600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>66300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>84700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1984,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3893300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3756500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3951700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2873600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2695100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2072600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1802800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1881100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1951400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2029,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>344800</v>
+      </c>
+      <c r="E57" s="3">
         <v>340600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>260100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>235900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>222100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>209800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>254800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>179700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>157100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E58" s="3">
         <v>10500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>356100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>238600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>197900</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>216200</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>491400</v>
+      </c>
+      <c r="E59" s="3">
         <v>611900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>421600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>417000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>437500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>373500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>360200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>289100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>296400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>845900</v>
+      </c>
+      <c r="E60" s="3">
         <v>963000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1037700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>891500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>667000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>781100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>615100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>685000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>453500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>745700</v>
+      </c>
+      <c r="E61" s="3">
         <v>754700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>657100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1017400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1271600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1274800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1212000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1225800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1442400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E62" s="3">
         <v>109500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>120500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>224700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>135500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>86300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>59300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2252,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2282,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1720600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1827200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1815400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2107200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2074200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2142200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1885400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1970100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1937500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2357,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2386,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2416,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2446,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2476,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4644400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4947700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4664300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5926200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5998800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6010500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5969800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5884400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5740400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2536,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2566,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2596,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2172800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1929300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2136300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>766300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>620900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-69600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-82700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-89000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2656,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E80" s="2">
         <v>43404</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43039</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42674</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42308</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41943</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41578</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41213</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40847</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-344700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1262000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>72600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-85400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-144000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-195500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2736,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E83" s="3">
         <v>110000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>122900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>141700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>135800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>127000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>133600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>156100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2795,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2825,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2855,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2885,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>413100</v>
+      </c>
+      <c r="E89" s="3">
         <v>229300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>234900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>289500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>262100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>89800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>107100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-90500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2960,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-67600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-94600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-107200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-62100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3019,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3049,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-61400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-296300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-106400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-130900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3094,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3123,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3153,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3183,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3213,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-99200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-311100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>258500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-207300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E102" s="3">
         <v>104900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-137100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>204300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>240200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-296000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-146800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
